--- a/data/trans_orig/MEDIO_AMBIENTE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MEDIO_AMBIENTE-Clase-trans_orig.xlsx
@@ -1420,12 +1420,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -2137,12 +2137,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2784,12 +2784,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1823</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2799,12 +2799,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>4043</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -4163,12 +4163,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>4043</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4276,12 +4276,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">

--- a/data/trans_orig/MEDIO_AMBIENTE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MEDIO_AMBIENTE-Clase-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Calidad del medio ambiente en Andalucia</t>
+          <t>Calidad del medio ambiente en Andalucia (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/MEDIO_AMBIENTE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MEDIO_AMBIENTE-Clase-trans_orig.xlsx
@@ -743,7 +743,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6267</t>
+          <t>7733</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3376</t>
+          <t>3136</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>415</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>7238</t>
+          <t>8157</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,23%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3869</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17891</t>
+          <t>17755</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2591</t>
+          <t>2341</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12920</t>
+          <t>13219</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>8233</t>
+          <t>8188</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>25140</t>
+          <t>23841</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,6%</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25318</t>
+          <t>25351</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52374</t>
+          <t>50832</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>21122</t>
+          <t>20818</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>37582</t>
+          <t>38422</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>50625</t>
+          <t>50500</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>81612</t>
+          <t>81573</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
@@ -1077,12 +1077,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>245438</t>
+          <t>246841</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>282077</t>
+          <t>284448</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>67,2%</t>
+          <t>67,59%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,23%</t>
+          <t>77,88%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1112,12 +1112,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>207468</t>
+          <t>206616</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>230819</t>
+          <t>232128</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>69,99%</t>
+          <t>69,7%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>77,87%</t>
+          <t>78,31%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>460821</t>
+          <t>460420</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>504643</t>
+          <t>505301</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1162,12 +1162,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>69,65%</t>
+          <t>69,59%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>76,27%</t>
+          <t>76,37%</t>
         </is>
       </c>
     </row>
@@ -1190,12 +1190,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42090</t>
+          <t>41504</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69951</t>
+          <t>69228</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,12 +1225,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>33387</t>
+          <t>32677</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>51465</t>
+          <t>51002</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>80256</t>
+          <t>80068</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>114731</t>
+          <t>116320</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1275,12 +1275,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>17,58%</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3361</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>3555</t>
+          <t>3288</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,56%</t>
         </is>
       </c>
     </row>
@@ -1533,12 +1533,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>588</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6682</t>
+          <t>7263</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1568,12 +1568,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3008</t>
+          <t>3118</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13290</t>
+          <t>13382</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1583,12 +1583,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1603,12 +1603,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>4481</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>17357</t>
+          <t>15823</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1618,12 +1618,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,71%</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14232</t>
+          <t>13810</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>33144</t>
+          <t>32597</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>24709</t>
+          <t>25020</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>43372</t>
+          <t>43608</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1696,12 +1696,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>43628</t>
+          <t>44033</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>69299</t>
+          <t>69783</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1731,12 +1731,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>11,96%</t>
         </is>
       </c>
     </row>
@@ -1759,12 +1759,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>236302</t>
+          <t>237513</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>267656</t>
+          <t>267320</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>72,92%</t>
+          <t>73,3%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>82,6%</t>
+          <t>82,49%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1794,12 +1794,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>180773</t>
+          <t>180980</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>204765</t>
+          <t>204567</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>69,62%</t>
+          <t>69,7%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>78,86%</t>
+          <t>78,79%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1829,12 +1829,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>424549</t>
+          <t>424031</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>465028</t>
+          <t>465408</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1844,12 +1844,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>72,74%</t>
+          <t>72,65%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>79,67%</t>
+          <t>79,74%</t>
         </is>
       </c>
     </row>
@@ -1872,12 +1872,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>33918</t>
+          <t>34871</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>61936</t>
+          <t>60272</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,12 +1907,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>18481</t>
+          <t>19061</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>34965</t>
+          <t>35359</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1922,12 +1922,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>57527</t>
+          <t>56805</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>88566</t>
+          <t>90736</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1957,12 +1957,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>15,55%</t>
         </is>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6109</t>
+          <t>6138</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>5818</t>
+          <t>6649</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5871</t>
+          <t>5635</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2345</t>
+          <t>2374</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>6529</t>
+          <t>6341</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,11%</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7032</t>
+          <t>8192</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>71141</t>
+          <t>73859</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2363,12 +2363,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>4695</t>
+          <t>4687</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>18968</t>
+          <t>18280</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>13349</t>
+          <t>13670</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>80583</t>
+          <t>80515</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2413,12 +2413,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>14,08%</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>326769</t>
+          <t>326106</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>456013</t>
+          <t>454112</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2456,12 +2456,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>68,73%</t>
+          <t>68,59%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>69001</t>
+          <t>68810</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>83220</t>
+          <t>83071</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>71,48%</t>
+          <t>71,28%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>86,21%</t>
+          <t>86,05%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2511,12 +2511,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>409263</t>
+          <t>409964</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>539053</t>
+          <t>542297</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2526,12 +2526,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>71,55%</t>
+          <t>71,68%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>94,81%</t>
         </is>
       </c>
     </row>
@@ -2554,12 +2554,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9226</t>
+          <t>10433</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>78105</t>
+          <t>77273</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2569,12 +2569,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2589,12 +2589,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>5529</t>
+          <t>5618</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>15273</t>
+          <t>15502</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2604,12 +2604,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>14382</t>
+          <t>13123</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>83524</t>
+          <t>82232</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>14,38%</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>3329</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>3596</t>
+          <t>4501</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,38%</t>
         </is>
       </c>
     </row>
@@ -2897,12 +2897,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1394</t>
+          <t>1519</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11562</t>
+          <t>11226</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2932,12 +2932,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>1372</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>10672</t>
+          <t>11461</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2947,12 +2947,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2967,12 +2967,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4749</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>18848</t>
+          <t>17628</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -2982,12 +2982,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,51%</t>
         </is>
       </c>
     </row>
@@ -3010,12 +3010,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>39720</t>
+          <t>41122</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>73523</t>
+          <t>76567</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>23054</t>
+          <t>20696</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>82369</t>
+          <t>82051</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3060,12 +3060,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>60336</t>
+          <t>58475</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>141008</t>
+          <t>139569</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>11,92%</t>
         </is>
       </c>
     </row>
@@ -3123,12 +3123,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>383584</t>
+          <t>383889</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>429228</t>
+          <t>428442</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>71,87%</t>
+          <t>71,93%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>80,42%</t>
+          <t>80,28%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3158,12 +3158,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>468372</t>
+          <t>466027</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>590029</t>
+          <t>588119</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>73,56%</t>
+          <t>73,19%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>872347</t>
+          <t>874054</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1030584</t>
+          <t>1032602</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>74,53%</t>
+          <t>74,68%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>88,05%</t>
+          <t>88,23%</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>49858</t>
+          <t>49797</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>82297</t>
+          <t>82184</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3251,12 +3251,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3271,12 +3271,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>20930</t>
+          <t>21024</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>82452</t>
+          <t>83521</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>67436</t>
+          <t>67110</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>151156</t>
+          <t>151857</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3321,12 +3321,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>12,97%</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>5461</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3501,12 +3501,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>507</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>6178</t>
+          <t>5570</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3516,12 +3516,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3536,12 +3536,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>1275</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>8297</t>
+          <t>8623</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,35%</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2524</t>
+          <t>3782</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3614,12 +3614,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>2467</t>
+          <t>2651</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>11824</t>
+          <t>11581</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3629,12 +3629,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3649,12 +3649,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>3491</t>
+          <t>3571</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>12336</t>
+          <t>13333</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3664,12 +3664,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -3692,12 +3692,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>21057</t>
+          <t>19933</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>42991</t>
+          <t>43652</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3707,12 +3707,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>25796</t>
+          <t>26994</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>59893</t>
+          <t>58550</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>50058</t>
+          <t>51401</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>95469</t>
+          <t>95377</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>14,95%</t>
         </is>
       </c>
     </row>
@@ -3805,12 +3805,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>132486</t>
+          <t>132550</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>164813</t>
+          <t>165312</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>62,43%</t>
+          <t>62,46%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>77,66%</t>
+          <t>77,9%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>322250</t>
+          <t>323717</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>377193</t>
+          <t>378039</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
+          <t>76,04%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>88,6%</t>
+          <t>88,8%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>466111</t>
+          <t>467365</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>543110</t>
+          <t>544148</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>73,06%</t>
+          <t>73,26%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>85,13%</t>
+          <t>85,3%</t>
         </is>
       </c>
     </row>
@@ -3918,12 +3918,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>17551</t>
+          <t>17496</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>48408</t>
+          <t>50275</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -3933,12 +3933,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>16450</t>
+          <t>16075</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>38876</t>
+          <t>39315</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -3968,12 +3968,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3988,12 +3988,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>37115</t>
+          <t>38007</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>78243</t>
+          <t>78907</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -4003,12 +4003,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>12,37%</t>
         </is>
       </c>
     </row>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>2039</t>
+          <t>2513</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>2126</t>
+          <t>2032</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,31%</t>
         </is>
       </c>
     </row>
@@ -4296,12 +4296,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>547</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>5029</t>
+          <t>5525</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>518</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>5039</t>
+          <t>5082</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4374,12 +4374,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>7988</t>
+          <t>7955</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>32645</t>
+          <t>34060</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>39546</t>
+          <t>41103</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>74482</t>
+          <t>72499</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -4424,12 +4424,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>53927</t>
+          <t>52907</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>95181</t>
+          <t>95662</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -4459,12 +4459,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>14,58%</t>
         </is>
       </c>
     </row>
@@ -4487,12 +4487,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>86614</t>
+          <t>86438</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>128301</t>
+          <t>129402</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -4502,12 +4502,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>51,94%</t>
+          <t>51,83%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>76,94%</t>
+          <t>77,6%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4522,12 +4522,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>340307</t>
+          <t>339325</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>382916</t>
+          <t>380864</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>69,51%</t>
+          <t>69,31%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>78,22%</t>
+          <t>77,8%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>439145</t>
+          <t>437640</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>498463</t>
+          <t>499308</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -4572,12 +4572,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>66,91%</t>
+          <t>66,68%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>75,95%</t>
+          <t>76,08%</t>
         </is>
       </c>
     </row>
@@ -4600,12 +4600,12 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>24511</t>
+          <t>24115</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>63519</t>
+          <t>63626</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4615,12 +4615,12 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>38,09%</t>
+          <t>38,15%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -4635,12 +4635,12 @@
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>57080</t>
+          <t>57506</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>89005</t>
+          <t>90880</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4650,12 +4650,12 @@
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -4670,12 +4670,12 @@
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>91563</t>
+          <t>91411</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>142234</t>
+          <t>141712</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4685,12 +4685,12 @@
       </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>21,59%</t>
         </is>
       </c>
     </row>
@@ -4830,12 +4830,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>10684</t>
+          <t>11153</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -4845,12 +4845,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4865,12 +4865,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>2044</t>
+          <t>2083</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>8869</t>
+          <t>9354</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4900,12 +4900,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>4556</t>
+          <t>4641</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>15072</t>
+          <t>15973</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,37%</t>
         </is>
       </c>
     </row>
@@ -4943,12 +4943,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>9876</t>
+          <t>9792</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>29265</t>
+          <t>29673</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -4958,12 +4958,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4978,12 +4978,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>17846</t>
+          <t>18588</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>40144</t>
+          <t>39442</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -4993,12 +4993,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5013,12 +5013,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>32446</t>
+          <t>31874</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>59495</t>
+          <t>61178</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -5028,12 +5028,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -5056,12 +5056,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>129263</t>
+          <t>129131</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>233945</t>
+          <t>234912</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5091,12 +5091,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>164587</t>
+          <t>159765</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>264372</t>
+          <t>257814</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -5106,12 +5106,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5126,12 +5126,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>329227</t>
+          <t>320401</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>482084</t>
+          <t>474918</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -5141,12 +5141,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>11,09%</t>
         </is>
       </c>
     </row>
@@ -5169,12 +5169,12 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>1510043</t>
+          <t>1511041</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>1744718</t>
+          <t>1770705</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>72,69%</t>
+          <t>72,74%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>83,99%</t>
+          <t>85,24%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>1647515</t>
+          <t>1651153</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>1855739</t>
+          <t>1847735</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5219,12 +5219,12 @@
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>74,73%</t>
+          <t>74,9%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>84,18%</t>
+          <t>83,81%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -5239,12 +5239,12 @@
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>3189106</t>
+          <t>3192480</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>3512913</t>
+          <t>3543259</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -5254,12 +5254,12 @@
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>74,48%</t>
+          <t>74,56%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>82,04%</t>
+          <t>82,75%</t>
         </is>
       </c>
     </row>
@@ -5282,12 +5282,12 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>183763</t>
+          <t>174430</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>323721</t>
+          <t>322395</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -5317,12 +5317,12 @@
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>160552</t>
+          <t>172762</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>269453</t>
+          <t>269733</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -5332,12 +5332,12 @@
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -5352,12 +5352,12 @@
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>399843</t>
+          <t>383453</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>576697</t>
+          <t>572683</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
@@ -5367,12 +5367,12 @@
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>13,37%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/MEDIO_AMBIENTE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MEDIO_AMBIENTE-Clase-trans_orig.xlsx
@@ -733,7 +733,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1334</t>
+          <t>1372</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7733</t>
+          <t>7842</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3136</t>
+          <t>3281</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -803,22 +803,22 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>2280</t>
+          <t>2372</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>436</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>8157</t>
+          <t>8561</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,19%</t>
         </is>
       </c>
     </row>
@@ -846,32 +846,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8202</t>
+          <t>8528</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3831</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17755</t>
+          <t>18827</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -881,32 +881,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6313</t>
+          <t>6474</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2341</t>
+          <t>2377</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13219</t>
+          <t>13447</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>14515</t>
+          <t>15002</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>8188</t>
+          <t>8575</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>23841</t>
+          <t>24903</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,46%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>35518</t>
+          <t>37565</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25351</t>
+          <t>26643</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>50832</t>
+          <t>52739</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -994,32 +994,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>28605</t>
+          <t>30821</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>20818</t>
+          <t>22588</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>38422</t>
+          <t>40742</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1029,32 +1029,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>64124</t>
+          <t>68385</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>50500</t>
+          <t>53343</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>81573</t>
+          <t>85353</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>11,87%</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>265427</t>
+          <t>286010</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>246841</t>
+          <t>267242</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>284448</t>
+          <t>305639</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>72,67%</t>
+          <t>72,6%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>67,59%</t>
+          <t>67,84%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,88%</t>
+          <t>77,58%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>218993</t>
+          <t>238891</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>206616</t>
+          <t>225112</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>232128</t>
+          <t>252414</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>73,88%</t>
+          <t>73,49%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>69,7%</t>
+          <t>69,25%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>78,31%</t>
+          <t>77,65%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1142,32 +1142,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>484420</t>
+          <t>524901</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>460420</t>
+          <t>500799</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>505301</t>
+          <t>547388</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>73,21%</t>
+          <t>73,0%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>69,59%</t>
+          <t>69,65%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>76,37%</t>
+          <t>76,13%</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>54746</t>
+          <t>60476</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>41504</t>
+          <t>46024</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69228</t>
+          <t>75452</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1220,32 +1220,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>41575</t>
+          <t>47862</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>32677</t>
+          <t>37752</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>51002</t>
+          <t>58366</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1255,32 +1255,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>96322</t>
+          <t>108338</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>80068</t>
+          <t>90735</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>116320</t>
+          <t>129749</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>18,05%</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1298,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>365227</t>
+          <t>393951</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>365227</t>
+          <t>393951</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>365227</t>
+          <t>393951</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1333,17 +1333,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>296433</t>
+          <t>325048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>296433</t>
+          <t>325048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>296433</t>
+          <t>325048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>661660</t>
+          <t>718999</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>661660</t>
+          <t>718999</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>661660</t>
+          <t>718999</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>657</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1460,12 +1460,12 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3718</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>657</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
@@ -1495,12 +1495,12 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>3288</t>
+          <t>3242</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,51%</t>
         </is>
       </c>
     </row>
@@ -1528,32 +1528,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2529</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>794</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7263</t>
+          <t>7640</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1563,32 +1563,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6573</t>
+          <t>6613</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3118</t>
+          <t>3221</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13382</t>
+          <t>13343</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1598,32 +1598,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>8983</t>
+          <t>9143</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>4209</t>
+          <t>4422</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>15823</t>
+          <t>16092</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,55%</t>
         </is>
       </c>
     </row>
@@ -1641,32 +1641,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22359</t>
+          <t>22745</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13810</t>
+          <t>13690</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>32597</t>
+          <t>33088</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1676,32 +1676,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>33367</t>
+          <t>36573</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>25020</t>
+          <t>28084</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>43608</t>
+          <t>47462</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1711,32 +1711,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>55726</t>
+          <t>59318</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>44033</t>
+          <t>46329</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>69783</t>
+          <t>73365</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>11,63%</t>
         </is>
       </c>
     </row>
@@ -1754,32 +1754,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>253530</t>
+          <t>271142</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>237513</t>
+          <t>255153</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>267320</t>
+          <t>286402</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>78,24%</t>
+          <t>78,74%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,3%</t>
+          <t>74,1%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>82,49%</t>
+          <t>83,17%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1789,32 +1789,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>192975</t>
+          <t>212891</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>180980</t>
+          <t>200259</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>204567</t>
+          <t>224542</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>74,32%</t>
+          <t>74,31%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>69,7%</t>
+          <t>69,9%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>78,79%</t>
+          <t>78,38%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1824,32 +1824,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>446505</t>
+          <t>484033</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>424031</t>
+          <t>460161</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>465408</t>
+          <t>504209</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>76,5%</t>
+          <t>76,73%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>72,65%</t>
+          <t>72,95%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>79,74%</t>
+          <t>79,93%</t>
         </is>
       </c>
     </row>
@@ -1867,32 +1867,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>45748</t>
+          <t>47931</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>34871</t>
+          <t>36078</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>60272</t>
+          <t>62730</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1902,32 +1902,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>26064</t>
+          <t>29750</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>19061</t>
+          <t>21893</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>35359</t>
+          <t>39655</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1937,32 +1937,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>71813</t>
+          <t>77680</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>56805</t>
+          <t>62144</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>90736</t>
+          <t>97488</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>15,45%</t>
         </is>
       </c>
     </row>
@@ -1980,17 +1980,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2015,17 +2015,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>259644</t>
+          <t>286485</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>259644</t>
+          <t>286485</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>259644</t>
+          <t>286485</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2050,17 +2050,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>583691</t>
+          <t>630831</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>583691</t>
+          <t>630831</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>583691</t>
+          <t>630831</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6138</t>
+          <t>5230</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
@@ -2177,12 +2177,12 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>6649</t>
+          <t>5334</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,44%</t>
         </is>
       </c>
     </row>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1555</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -2220,12 +2220,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5635</t>
+          <t>5537</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2374</t>
+          <t>3852</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2280,32 +2280,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>2154</t>
+          <t>2714</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>759</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>6341</t>
+          <t>6453</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,74%</t>
         </is>
       </c>
     </row>
@@ -2323,32 +2323,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>31343</t>
+          <t>33459</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8192</t>
+          <t>23300</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>73859</t>
+          <t>46258</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2358,32 +2358,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>9197</t>
+          <t>10568</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>4687</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>18280</t>
+          <t>20486</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2393,32 +2393,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>40539</t>
+          <t>44027</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>13670</t>
+          <t>32753</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>80515</t>
+          <t>60295</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>16,25%</t>
         </is>
       </c>
     </row>
@@ -2436,32 +2436,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>407254</t>
+          <t>185923</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>326106</t>
+          <t>171284</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>454112</t>
+          <t>200443</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>85,66%</t>
+          <t>71,36%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>68,59%</t>
+          <t>65,74%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>76,93%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2471,32 +2471,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>77171</t>
+          <t>87264</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>68810</t>
+          <t>77943</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>83071</t>
+          <t>93880</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>79,94%</t>
+          <t>79,02%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>71,28%</t>
+          <t>70,58%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>86,05%</t>
+          <t>85,01%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2506,32 +2506,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>484425</t>
+          <t>273187</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>409964</t>
+          <t>255756</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>542297</t>
+          <t>289221</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>73,64%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>71,68%</t>
+          <t>68,94%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>77,96%</t>
         </is>
       </c>
     </row>
@@ -2549,32 +2549,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>34286</t>
+          <t>38528</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10433</t>
+          <t>27946</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>77273</t>
+          <t>52018</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2584,32 +2584,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>9570</t>
+          <t>11489</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>5618</t>
+          <t>6522</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>15502</t>
+          <t>18249</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2619,32 +2619,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>43856</t>
+          <t>50017</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>13123</t>
+          <t>36405</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>82232</t>
+          <t>63027</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>16,99%</t>
         </is>
       </c>
     </row>
@@ -2662,17 +2662,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2697,17 +2697,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>96537</t>
+          <t>110431</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>96537</t>
+          <t>110431</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>96537</t>
+          <t>110431</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2732,17 +2732,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>571961</t>
+          <t>370987</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>571961</t>
+          <t>370987</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>571961</t>
+          <t>370987</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2824,12 +2824,12 @@
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>4355</t>
+          <t>3736</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2859,12 +2859,12 @@
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>4501</t>
+          <t>5086</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,46%</t>
         </is>
       </c>
     </row>
@@ -2892,32 +2892,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>4886</t>
+          <t>4972</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1519</t>
+          <t>1572</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11226</t>
+          <t>11516</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2927,32 +2927,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>5338</t>
+          <t>6113</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1372</t>
+          <t>3109</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>11461</t>
+          <t>12361</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2962,32 +2962,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>10223</t>
+          <t>11086</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4229</t>
+          <t>5998</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>17628</t>
+          <t>18523</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -3005,32 +3005,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>54699</t>
+          <t>59503</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>41122</t>
+          <t>44674</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>76567</t>
+          <t>79813</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3040,32 +3040,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>52138</t>
+          <t>61595</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>20696</t>
+          <t>49734</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>82051</t>
+          <t>76304</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3075,32 +3075,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>106838</t>
+          <t>121098</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>58475</t>
+          <t>100913</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>139569</t>
+          <t>145063</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>13,22%</t>
         </is>
       </c>
     </row>
@@ -3118,32 +3118,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>408682</t>
+          <t>461010</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>383889</t>
+          <t>435311</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>428442</t>
+          <t>484688</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>76,57%</t>
+          <t>75,89%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>71,93%</t>
+          <t>71,66%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>80,28%</t>
+          <t>79,78%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3153,32 +3153,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>526172</t>
+          <t>363479</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>466027</t>
+          <t>344466</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>588119</t>
+          <t>379339</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>82,64%</t>
+          <t>74,15%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>73,19%</t>
+          <t>70,27%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>92,37%</t>
+          <t>77,38%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3188,32 +3188,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>934853</t>
+          <t>824489</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>874054</t>
+          <t>791838</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1032602</t>
+          <t>856236</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>79,87%</t>
+          <t>75,11%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>74,68%</t>
+          <t>72,14%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>88,23%</t>
+          <t>78,0%</t>
         </is>
       </c>
     </row>
@@ -3231,32 +3231,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>65443</t>
+          <t>82025</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>49797</t>
+          <t>62819</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>82184</t>
+          <t>103343</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3266,32 +3266,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>52326</t>
+          <t>58281</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>21024</t>
+          <t>46344</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>83521</t>
+          <t>71322</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3301,32 +3301,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>117769</t>
+          <t>140306</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>67110</t>
+          <t>118914</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>151857</t>
+          <t>165411</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>15,07%</t>
         </is>
       </c>
     </row>
@@ -3344,17 +3344,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>533709</t>
+          <t>607509</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>533709</t>
+          <t>607509</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>533709</t>
+          <t>607509</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3379,17 +3379,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>636706</t>
+          <t>490201</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>636706</t>
+          <t>490201</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>636706</t>
+          <t>490201</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3414,17 +3414,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1170415</t>
+          <t>1097710</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1170415</t>
+          <t>1097710</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1170415</t>
+          <t>1097710</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1675</t>
+          <t>1759</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -3471,12 +3471,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>6184</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3496,32 +3496,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>2076</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>651</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>5570</t>
+          <t>5528</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3531,32 +3531,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>3616</t>
+          <t>3835</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1275</t>
+          <t>1389</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>8623</t>
+          <t>8738</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>571</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3782</t>
+          <t>3633</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3609,32 +3609,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>6428</t>
+          <t>6621</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>2651</t>
+          <t>3253</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>11581</t>
+          <t>11606</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3644,32 +3644,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>6988</t>
+          <t>7192</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>3571</t>
+          <t>3783</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>13333</t>
+          <t>12858</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,94%</t>
         </is>
       </c>
     </row>
@@ -3687,32 +3687,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>30967</t>
+          <t>34820</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>19933</t>
+          <t>23946</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>43652</t>
+          <t>48536</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3722,32 +3722,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>45260</t>
+          <t>51899</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>26994</t>
+          <t>41196</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>58550</t>
+          <t>63865</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3757,32 +3757,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>76228</t>
+          <t>86718</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>51401</t>
+          <t>71490</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>95377</t>
+          <t>105822</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>15,99%</t>
         </is>
       </c>
     </row>
@@ -3800,32 +3800,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>149890</t>
+          <t>183606</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>132550</t>
+          <t>166406</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>165312</t>
+          <t>199256</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>70,63%</t>
+          <t>72,19%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>62,46%</t>
+          <t>65,43%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>77,9%</t>
+          <t>78,35%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3835,32 +3835,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>343835</t>
+          <t>314608</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>323717</t>
+          <t>300088</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>378039</t>
+          <t>328973</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>80,76%</t>
+          <t>77,17%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>76,04%</t>
+          <t>73,61%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>88,8%</t>
+          <t>80,7%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3870,32 +3870,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>493725</t>
+          <t>498214</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>467365</t>
+          <t>471900</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>544148</t>
+          <t>517525</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>77,39%</t>
+          <t>75,26%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>73,26%</t>
+          <t>71,29%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>85,3%</t>
+          <t>78,18%</t>
         </is>
       </c>
     </row>
@@ -3913,32 +3913,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>29128</t>
+          <t>33572</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>17496</t>
+          <t>22151</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>50275</t>
+          <t>50399</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3948,32 +3948,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>28260</t>
+          <t>32458</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>16075</t>
+          <t>24100</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>39315</t>
+          <t>42956</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3983,32 +3983,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>57387</t>
+          <t>66030</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>38007</t>
+          <t>51184</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>78907</t>
+          <t>83813</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>12,66%</t>
         </is>
       </c>
     </row>
@@ -4026,17 +4026,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4061,17 +4061,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>425725</t>
+          <t>407661</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>425725</t>
+          <t>407661</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>425725</t>
+          <t>407661</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4096,17 +4096,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>637944</t>
+          <t>661990</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>637944</t>
+          <t>661990</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>637944</t>
+          <t>661990</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>431</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>2513</t>
+          <t>2602</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>431</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>2032</t>
+          <t>2185</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -4291,22 +4291,22 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>2245</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>609</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>5525</t>
+          <t>6056</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4326,17 +4326,17 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>2245</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>594</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>5082</t>
+          <t>5552</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,78%</t>
         </is>
       </c>
     </row>
@@ -4369,32 +4369,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>16767</t>
+          <t>19316</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>7955</t>
+          <t>9825</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>34060</t>
+          <t>35576</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>20,99%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4404,32 +4404,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>54042</t>
+          <t>55228</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>41103</t>
+          <t>42071</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>72499</t>
+          <t>72312</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4439,32 +4439,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>70809</t>
+          <t>74544</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>52907</t>
+          <t>55986</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>95662</t>
+          <t>96755</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>13,52%</t>
         </is>
       </c>
     </row>
@@ -4482,32 +4482,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>108850</t>
+          <t>109285</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>86438</t>
+          <t>87385</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>129402</t>
+          <t>128128</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>65,27%</t>
+          <t>64,48%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>51,83%</t>
+          <t>51,56%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>77,6%</t>
+          <t>75,59%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4517,32 +4517,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>361189</t>
+          <t>411377</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>339325</t>
+          <t>388101</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>380864</t>
+          <t>430539</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>73,78%</t>
+          <t>75,29%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>69,31%</t>
+          <t>71,03%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>78,79%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4552,32 +4552,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>470039</t>
+          <t>520662</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>437640</t>
+          <t>486711</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>499308</t>
+          <t>549159</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>71,62%</t>
+          <t>72,73%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>66,68%</t>
+          <t>67,99%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>76,08%</t>
+          <t>76,71%</t>
         </is>
       </c>
     </row>
@@ -4595,32 +4595,32 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>41144</t>
+          <t>40896</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>24115</t>
+          <t>24866</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>63626</t>
+          <t>62380</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>38,15%</t>
+          <t>36,8%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -4630,32 +4630,32 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>71858</t>
+          <t>77124</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>57506</t>
+          <t>62162</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>90880</t>
+          <t>97472</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -4665,32 +4665,32 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>113003</t>
+          <t>118020</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>91411</t>
+          <t>95855</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>141712</t>
+          <t>147343</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>20,58%</t>
         </is>
       </c>
     </row>
@@ -4708,17 +4708,17 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -4743,17 +4743,17 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>489561</t>
+          <t>546406</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>489561</t>
+          <t>546406</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>489561</t>
+          <t>546406</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -4778,17 +4778,17 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>656323</t>
+          <t>715903</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>656323</t>
+          <t>715903</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>656323</t>
+          <t>715903</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -4825,22 +4825,22 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>3994</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>1030</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>11153</t>
+          <t>10579</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4860,32 +4860,32 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>4896</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>2083</t>
+          <t>2312</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>9354</t>
+          <t>9613</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4895,32 +4895,32 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>8683</t>
+          <t>9070</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>4641</t>
+          <t>4916</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>15973</t>
+          <t>16668</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,4%</t>
         </is>
       </c>
     </row>
@@ -4938,32 +4938,32 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>17612</t>
+          <t>18205</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>9792</t>
+          <t>10881</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>29673</t>
+          <t>30009</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4973,32 +4973,32 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>27318</t>
+          <t>29177</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>18588</t>
+          <t>21062</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>39442</t>
+          <t>41315</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5008,32 +5008,32 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>44930</t>
+          <t>47382</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>31874</t>
+          <t>36410</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>61178</t>
+          <t>62133</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,48%</t>
         </is>
       </c>
     </row>
@@ -5051,32 +5051,32 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>191653</t>
+          <t>207406</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>129131</t>
+          <t>179857</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>234912</t>
+          <t>242126</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5086,32 +5086,32 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>222610</t>
+          <t>246684</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>159765</t>
+          <t>219450</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>257814</t>
+          <t>274184</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5121,32 +5121,32 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>414263</t>
+          <t>454090</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>320401</t>
+          <t>416322</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>474918</t>
+          <t>494517</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>11,78%</t>
         </is>
       </c>
     </row>
@@ -5164,32 +5164,32 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>1593633</t>
+          <t>1496975</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>1511041</t>
+          <t>1446179</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>1770705</t>
+          <t>1541006</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>76,71%</t>
+          <t>73,74%</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>72,74%</t>
+          <t>71,23%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>85,24%</t>
+          <t>75,9%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -5199,32 +5199,32 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>1720335</t>
+          <t>1628511</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>1651153</t>
+          <t>1588626</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>1847735</t>
+          <t>1663695</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>78,03%</t>
+          <t>75,18%</t>
         </is>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>74,9%</t>
+          <t>73,34%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>83,81%</t>
+          <t>76,8%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -5234,32 +5234,32 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>3313968</t>
+          <t>3125486</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>3192480</t>
+          <t>3067441</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>3543259</t>
+          <t>3187766</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t>77,39%</t>
+          <t>74,48%</t>
         </is>
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>74,56%</t>
+          <t>73,1%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>82,75%</t>
+          <t>75,96%</t>
         </is>
       </c>
     </row>
@@ -5277,32 +5277,32 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>270494</t>
+          <t>303428</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>174430</t>
+          <t>266401</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>322395</t>
+          <t>345010</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -5312,67 +5312,67 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>229655</t>
+          <t>256964</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>172762</t>
+          <t>230610</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>269733</t>
+          <t>286345</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
+          <t>13,22%</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>560392</t>
+        </is>
+      </c>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>513286</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="inlineStr">
+        <is>
+          <t>609339</t>
+        </is>
+      </c>
+      <c r="U44" s="2" t="inlineStr">
+        <is>
+          <t>13,35%</t>
+        </is>
+      </c>
+      <c r="V44" s="2" t="inlineStr">
+        <is>
           <t>12,23%</t>
         </is>
       </c>
-      <c r="Q44" s="2" t="inlineStr">
-        <is>
-          <t>590</t>
-        </is>
-      </c>
-      <c r="R44" s="2" t="inlineStr">
-        <is>
-          <t>500149</t>
-        </is>
-      </c>
-      <c r="S44" s="2" t="inlineStr">
-        <is>
-          <t>383453</t>
-        </is>
-      </c>
-      <c r="T44" s="2" t="inlineStr">
-        <is>
-          <t>572683</t>
-        </is>
-      </c>
-      <c r="U44" s="2" t="inlineStr">
-        <is>
-          <t>11,68%</t>
-        </is>
-      </c>
-      <c r="V44" s="2" t="inlineStr">
-        <is>
-          <t>8,96%</t>
-        </is>
-      </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>14,52%</t>
         </is>
       </c>
     </row>
@@ -5390,17 +5390,17 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>2077387</t>
+          <t>2030188</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>2077387</t>
+          <t>2030188</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>2077387</t>
+          <t>2030188</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -5425,17 +5425,17 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>2204606</t>
+          <t>2166232</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>2204606</t>
+          <t>2166232</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>2204606</t>
+          <t>2166232</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -5460,17 +5460,17 @@
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>4281994</t>
+          <t>4196420</t>
         </is>
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>4281994</t>
+          <t>4196420</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>4281994</t>
+          <t>4196420</t>
         </is>
       </c>
       <c r="U45" s="2" t="inlineStr">
